--- a/slides/br_ind_milagre.xlsx
+++ b/slides/br_ind_milagre.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -167,18 +167,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -188,9 +188,11 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
